--- a/data/story generator.xlsx
+++ b/data/story generator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/escheh/Documents/GitHub/planting.shade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5CFFBE-D1FF-2143-993A-2E38911D5C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EB1579-1184-A24F-A8C8-DD896F2473BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36140" yWindow="1420" windowWidth="27640" windowHeight="16940" xr2:uid="{95F2BBC5-D73C-C740-8BA5-5A86AD11946B}"/>
+    <workbookView xWindow="6500" yWindow="1960" windowWidth="27640" windowHeight="16940" xr2:uid="{95F2BBC5-D73C-C740-8BA5-5A86AD11946B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>topic</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D25C69-2AA5-6C4C-86A0-481BA3F3E663}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -547,7 +547,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -563,65 +563,57 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
